--- a/printout/chart test.xlsx
+++ b/printout/chart test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pro_a\Documents\skripsineaku\printout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCD27FEB-B444-4DD3-A13D-17266704492D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCF8DA7-22A7-4636-94EA-D62570CFF5D2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4590" xr2:uid="{0F932424-73A7-4837-9F11-A5534F426E32}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4590" activeTab="1" xr2:uid="{0F932424-73A7-4837-9F11-A5534F426E32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>Client</t>
   </si>
@@ -58,6 +59,57 @@
   </si>
   <si>
     <t>STI201601320</t>
+  </si>
+  <si>
+    <t>khusnul</t>
+  </si>
+  <si>
+    <t>STI201601301</t>
+  </si>
+  <si>
+    <t>STI201601302</t>
+  </si>
+  <si>
+    <t>STI201601303</t>
+  </si>
+  <si>
+    <t>STI201601304</t>
+  </si>
+  <si>
+    <t>STI201601305</t>
+  </si>
+  <si>
+    <t>STI201601306</t>
+  </si>
+  <si>
+    <t>STI201601307</t>
+  </si>
+  <si>
+    <t>STI201601308</t>
+  </si>
+  <si>
+    <t>STI201601309</t>
+  </si>
+  <si>
+    <t>STI201601310</t>
+  </si>
+  <si>
+    <t>STI201601311</t>
+  </si>
+  <si>
+    <t>STI201601312</t>
+  </si>
+  <si>
+    <t>STI201601313</t>
+  </si>
+  <si>
+    <t>STI201601314</t>
+  </si>
+  <si>
+    <t>STI201601315</t>
+  </si>
+  <si>
+    <t>STI201601316</t>
   </si>
 </sst>
 </file>
@@ -103,11 +155,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,8 +201,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.0231430805705225E-2"/>
-          <c:y val="0.11032362459546927"/>
+          <c:x val="0.14186101209826543"/>
+          <c:y val="1.2803073838982097E-2"/>
           <c:w val="0.89638132024024975"/>
           <c:h val="0.73086282903957389"/>
         </c:manualLayout>
@@ -923,25 +978,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="91440" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -955,10 +991,6 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -999,10 +1031,13 @@
                         <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
                       </a:rPr>
                       <a:pPr>
-                        <a:defRPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                           <a:solidFill>
                             <a:schemeClr val="bg1"/>
                           </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
                         </a:defRPr>
                       </a:pPr>
                       <a:t>[VALUE]</a:t>
@@ -1026,25 +1061,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91440" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1057,10 +1073,6 @@
                     <a:prstGeom prst="rect">
                       <a:avLst/>
                     </a:prstGeom>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
                   </c15:spPr>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
@@ -1379,10 +1391,6 @@
                   <a:prstGeom prst="rect">
                     <a:avLst/>
                   </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
                 </c15:spPr>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1607,6 +1615,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1579499343"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1697,6 +1706,1046 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.7028438929796356E-2"/>
+          <c:y val="7.0748915948347993E-2"/>
+          <c:w val="0.87846978715616175"/>
+          <c:h val="0.6023219501933843"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>joko</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>singgih</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>akbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>khusnul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STI201601301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>STI201601302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STI201601303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>STI201601304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>STI201601305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STI201601306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>STI201601307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>STI201601308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>STI201601309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>STI201601310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>STI201601311</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>STI201601312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>STI201601313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>STI201601314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>STI201601315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>STI201601316</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);\(0.0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8B3-4BC4-8598-58B52BA3A78E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>joko</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>singgih</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>akbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>khusnul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STI201601301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>STI201601302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STI201601303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>STI201601304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>STI201601305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STI201601306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>STI201601307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>STI201601308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>STI201601309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>STI201601310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>STI201601311</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>STI201601312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>STI201601313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>STI201601314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>STI201601315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>STI201601316</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);\(0.0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>28300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8B3-4BC4-8598-58B52BA3A78E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1258208351"/>
+        <c:axId val="1247350751"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>joko</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>singgih</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>akbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>khusnul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STI201601301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>STI201601302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STI201601303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>STI201601304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>STI201601305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STI201601306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>STI201601307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>STI201601308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>STI201601309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>STI201601310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>STI201601311</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>STI201601312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>STI201601313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>STI201601314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>STI201601315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>STI201601316</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);\(0.0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>663</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1086</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>930</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8B3-4BC4-8598-58B52BA3A78E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>joko</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>singgih</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>akbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>khusnul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STI201601301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>STI201601302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STI201601303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>STI201601304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>STI201601305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STI201601306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>STI201601307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>STI201601308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>STI201601309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>STI201601310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>STI201601311</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>STI201601312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>STI201601313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>STI201601314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>STI201601315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>STI201601316</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);\(0.0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>28300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8B3-4BC4-8598-58B52BA3A78E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1258208351"/>
+        <c:axId val="1247350751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1258208351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1247350751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1247350751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_);\(0.0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258208351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31423736850643275"/>
+          <c:y val="0.34456559050337293"/>
+          <c:w val="0.29100400807299809"/>
+          <c:h val="4.4643169603799535E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1738,35 +2787,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1774,26 +2821,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1802,9 +2857,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1823,14 +2877,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1839,20 +2885,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1861,13 +2907,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1879,10 +2925,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1891,16 +2937,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1918,21 +2965,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1942,20 +2986,33 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="95000"/>
+              <a:lumOff val="5000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1971,10 +3028,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1990,9 +3044,8 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2006,12 +3059,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -2023,9 +3070,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2040,14 +3087,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2061,10 +3107,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -2078,14 +3121,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2094,14 +3136,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2109,7 +3150,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2122,11 +3163,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2134,14 +3185,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2153,12 +3204,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2174,7 +3232,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2183,9 +3240,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2195,19 +3251,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2216,9 +3282,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2230,12 +3295,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2244,16 +3303,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>504823</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552448</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2261,6 +3320,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5848EDC0-F558-44CF-909E-B389FEAD373A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62E8D54-1312-419B-92B2-9BA63A629588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,8 +3680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D397103-A52F-4019-9E9E-AC2E3CBBB945}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2744,4 +3844,380 @@
   <pageSetup paperSize="119" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4190EBF1-275A-4C26-B4B2-08B7D3A103F1}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12800</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12800</v>
+      </c>
+      <c r="D2" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E2" s="3">
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1209</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1209</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1806</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1218</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1218</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7400</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7400</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1146</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1146</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1029</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1029</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1917</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>741</v>
+      </c>
+      <c r="C9" s="2">
+        <v>741</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>891</v>
+      </c>
+      <c r="C10" s="3">
+        <v>891</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>642</v>
+      </c>
+      <c r="C11" s="3">
+        <v>642</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1902</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>825</v>
+      </c>
+      <c r="C12" s="3">
+        <v>825</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1044</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>972</v>
+      </c>
+      <c r="C13" s="3">
+        <v>972</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>663</v>
+      </c>
+      <c r="C14" s="3">
+        <v>663</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>804</v>
+      </c>
+      <c r="C15" s="3">
+        <v>804</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
+        <v>765</v>
+      </c>
+      <c r="C16" s="3">
+        <v>765</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1008</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1962</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1086</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1086</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1782</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
+        <v>930</v>
+      </c>
+      <c r="C19" s="3">
+        <v>930</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>654</v>
+      </c>
+      <c r="C20" s="3">
+        <v>654</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1986</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1059</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1059</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1977</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1977</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/printout/chart test.xlsx
+++ b/printout/chart test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pro_a\Documents\skripsineaku\printout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCF8DA7-22A7-4636-94EA-D62570CFF5D2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9422A3E5-C5D4-42BC-A790-5D0A9108625E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4590" activeTab="1" xr2:uid="{0F932424-73A7-4837-9F11-A5534F426E32}"/>
   </bookViews>
@@ -1734,19 +1734,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1763,10 +1757,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.7028438929796356E-2"/>
-          <c:y val="7.0748915948347993E-2"/>
-          <c:w val="0.87846978715616175"/>
-          <c:h val="0.6023219501933843"/>
+          <c:x val="6.1864537539339466E-2"/>
+          <c:y val="7.966005665722381E-2"/>
+          <c:w val="0.90910487666491147"/>
+          <c:h val="0.55960235848705886"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1776,42 +1770,28 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No HTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -1890,113 +1870,99 @@
                 <c:formatCode>0.0_);\(0.0\)</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12800</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1209</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1218</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7400</c:v>
+                  <c:v>19.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1146</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1029</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>741</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>891</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>642</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>825</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>972</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>663</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>804</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>765</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1008</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1086</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>930</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>654</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1059</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B8B3-4BC4-8598-58B52BA3A78E}"/>
+              <c16:uniqueId val="{00000000-6532-4133-AF87-E60A9A0226B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With HTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -2075,71 +2041,71 @@
                 <c:formatCode>0.0_);\(0.0\)</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>28300</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2400</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1806</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3800</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7600</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1917</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2200</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1902</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1044</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2600</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2100</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2200</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1962</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1782</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2000</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1986</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1977</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B8B3-4BC4-8598-58B52BA3A78E}"/>
+              <c16:uniqueId val="{00000002-6532-4133-AF87-E60A9A0226B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2152,8 +2118,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="1258208351"/>
-        <c:axId val="1247350751"/>
+        <c:axId val="2070707920"/>
+        <c:axId val="160984656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2161,20 +2127,207 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No HTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+                <a:prstDash val="sysDash"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>joko</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>singgih</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>akbar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>khusnul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STI201601301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>STI201601302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STI201601303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>STI201601304</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>STI201601305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>STI201601306</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>STI201601307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>STI201601308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>STI201601309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>STI201601310</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>STI201601311</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>STI201601312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>STI201601313</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>STI201601314</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>STI201601315</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>STI201601316</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_);\(0.0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6532-4133-AF87-E60A9A0226B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With HTB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2249,69 +2402,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$21</c:f>
+              <c:f>Sheet2!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0_);\(0.0\)</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>12800</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2000</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1209</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1218</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7400</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1146</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1029</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>741</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>891</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>642</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>825</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>972</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>663</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>804</c:v>
+                  <c:v>2.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>765</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1008</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1086</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>930</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>654</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1059</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2319,172 +2472,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B8B3-4BC4-8598-58B52BA3A78E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>joko</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>singgih</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>akbar</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>khusnul</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>STI201601301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>STI201601302</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>STI201601303</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>STI201601304</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>STI201601305</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>STI201601306</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>STI201601307</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>STI201601308</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>STI201601309</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>STI201601310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>STI201601311</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>STI201601312</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>STI201601313</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>STI201601314</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>STI201601315</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>STI201601316</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_);\(0.0\)</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>28300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1806</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7600</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1917</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1902</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1044</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1782</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1977</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B8B3-4BC4-8598-58B52BA3A78E}"/>
+              <c16:uniqueId val="{00000003-6532-4133-AF87-E60A9A0226B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2498,27 +2486,165 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1258208351"/>
-        <c:axId val="1247350751"/>
+        <c:axId val="2070707920"/>
+        <c:axId val="160984656"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Client</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet2!$A$2:$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="20"/>
+                      <c:pt idx="0">
+                        <c:v>joko</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>singgih</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>akbar</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>khusnul</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>STI201601301</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>STI201601302</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>STI201601303</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>STI201601304</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>STI201601305</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>STI201601306</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>STI201601307</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>STI201601308</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>STI201601309</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>STI201601310</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>STI201601311</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>STI201601312</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>STI201601313</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>STI201601314</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>STI201601315</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>STI201601316</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-6532-4133-AF87-E60A9A0226B3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1258208351"/>
+        <c:axId val="2070707920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2532,8 +2658,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2544,7 +2671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1247350751"/>
+        <c:crossAx val="160984656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2552,7 +2679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1247350751"/>
+        <c:axId val="160984656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,20 +2687,19 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="0.0_);\(0.0\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2590,8 +2716,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2602,7 +2729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1258208351"/>
+        <c:crossAx val="2070707920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2610,15 +2737,12 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
+        <c:showKeys val="0"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
           </a:ln>
           <a:effectLst/>
@@ -2630,8 +2754,9 @@
             <a:pPr rtl="0">
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2652,15 +2777,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.31423736850643275"/>
-          <c:y val="0.34456559050337293"/>
-          <c:w val="0.29100400807299809"/>
-          <c:h val="4.4643169603799535E-2"/>
+          <c:x val="0.67495029972528786"/>
+          <c:y val="0.12234225513609107"/>
+          <c:w val="0.30354488278048636"/>
+          <c:h val="0.2384564866085713"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2678,8 +2803,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2703,28 +2829,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2787,33 +2902,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2821,7 +2938,7 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2829,36 +2946,29 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2877,6 +2987,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -2885,35 +3003,73 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2922,23 +3078,18 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -2946,10 +3097,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2965,16 +3116,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2986,35 +3138,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="95000"/>
-              <a:lumOff val="5000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3023,12 +3163,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3039,13 +3182,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3057,7 +3201,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3065,17 +3209,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3084,14 +3227,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3102,12 +3245,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -3118,14 +3264,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3136,26 +3282,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3163,21 +3310,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3185,14 +3322,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3204,19 +3341,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3225,7 +3355,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -3240,8 +3370,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3251,29 +3382,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="85000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3282,8 +3403,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3293,7 +3415,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3345,22 +3467,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>422335</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>496711</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C62E8D54-1312-419B-92B2-9BA63A629588}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC4F723-0C04-4F33-9392-2F990A8C6119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3850,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4190EBF1-275A-4C26-B4B2-08B7D3A103F1}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,16 +3999,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>12800</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>12800</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D2" s="3">
-        <v>28300</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E2" s="3">
-        <v>28300</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3894,16 +4016,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>2000</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>2000</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D3" s="3">
-        <v>2400</v>
+        <v>4.2</v>
       </c>
       <c r="E3" s="3">
-        <v>2400</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3911,16 +4033,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1209</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>1209</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>1806</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3">
-        <v>1806</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3928,16 +4050,16 @@
         <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>1218</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>1218</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>3800</v>
+        <v>4.3</v>
       </c>
       <c r="E5" s="3">
-        <v>3800</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3945,16 +4067,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>7400</v>
+        <v>19.3</v>
       </c>
       <c r="C6" s="2">
-        <v>7400</v>
+        <v>19.3</v>
       </c>
       <c r="D6" s="3">
-        <v>7600</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E6" s="3">
-        <v>7600</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3962,16 +4084,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="2">
-        <v>1146</v>
+        <v>1.7</v>
       </c>
       <c r="C7" s="2">
-        <v>1146</v>
+        <v>1.7</v>
       </c>
       <c r="D7" s="3">
-        <v>2000</v>
+        <v>2.7</v>
       </c>
       <c r="E7" s="3">
-        <v>2000</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3979,16 +4101,16 @@
         <v>14</v>
       </c>
       <c r="B8" s="2">
-        <v>1029</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>1029</v>
+        <v>2</v>
       </c>
       <c r="D8" s="3">
-        <v>1917</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E8" s="3">
-        <v>1917</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -3996,16 +4118,16 @@
         <v>15</v>
       </c>
       <c r="B9" s="2">
-        <v>741</v>
+        <v>2.5</v>
       </c>
       <c r="C9" s="2">
-        <v>741</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>3</v>
       </c>
       <c r="E9" s="3">
-        <v>2200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4013,16 +4135,16 @@
         <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>891</v>
+        <v>2.5</v>
       </c>
       <c r="C10" s="3">
-        <v>891</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="3">
-        <v>2000</v>
+        <v>2.8</v>
       </c>
       <c r="E10" s="3">
-        <v>2000</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4030,16 +4152,16 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>642</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>642</v>
+        <v>2</v>
       </c>
       <c r="D11" s="3">
-        <v>1902</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="3">
-        <v>1902</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4047,16 +4169,16 @@
         <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>825</v>
+        <v>2.7</v>
       </c>
       <c r="C12" s="3">
-        <v>825</v>
+        <v>2.7</v>
       </c>
       <c r="D12" s="3">
-        <v>1044</v>
+        <v>2.8</v>
       </c>
       <c r="E12" s="3">
-        <v>1044</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4064,16 +4186,16 @@
         <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>972</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>972</v>
+        <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>2000</v>
+        <v>3</v>
       </c>
       <c r="E13" s="3">
-        <v>2000</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4081,16 +4203,16 @@
         <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>663</v>
+        <v>2.7</v>
       </c>
       <c r="C14" s="3">
-        <v>663</v>
+        <v>2.7</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>3</v>
       </c>
       <c r="E14" s="3">
-        <v>2600</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4098,16 +4220,16 @@
         <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>804</v>
+        <v>2.8</v>
       </c>
       <c r="C15" s="3">
-        <v>804</v>
+        <v>2.8</v>
       </c>
       <c r="D15" s="3">
-        <v>2100</v>
+        <v>2.6</v>
       </c>
       <c r="E15" s="3">
-        <v>2100</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4115,16 +4237,16 @@
         <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>765</v>
+        <v>2.1</v>
       </c>
       <c r="C16" s="3">
-        <v>765</v>
+        <v>2.1</v>
       </c>
       <c r="D16" s="3">
-        <v>2200</v>
+        <v>3</v>
       </c>
       <c r="E16" s="3">
-        <v>2200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4132,16 +4254,16 @@
         <v>23</v>
       </c>
       <c r="B17" s="3">
-        <v>1008</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>1008</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>1962</v>
+        <v>3.1</v>
       </c>
       <c r="E17" s="3">
-        <v>1962</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4149,16 +4271,16 @@
         <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>1086</v>
+        <v>2.6</v>
       </c>
       <c r="C18" s="3">
-        <v>1086</v>
+        <v>2.6</v>
       </c>
       <c r="D18" s="3">
-        <v>1782</v>
+        <v>2.8</v>
       </c>
       <c r="E18" s="3">
-        <v>1782</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4166,16 +4288,16 @@
         <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>930</v>
+        <v>2.9</v>
       </c>
       <c r="C19" s="3">
-        <v>930</v>
+        <v>2.9</v>
       </c>
       <c r="D19" s="3">
-        <v>2000</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="3">
-        <v>2000</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4183,16 +4305,16 @@
         <v>26</v>
       </c>
       <c r="B20" s="3">
-        <v>654</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>654</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>1986</v>
+        <v>2.9</v>
       </c>
       <c r="E20" s="3">
-        <v>1986</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4200,16 +4322,16 @@
         <v>27</v>
       </c>
       <c r="B21" s="3">
-        <v>1059</v>
+        <v>2.9</v>
       </c>
       <c r="C21" s="3">
-        <v>1059</v>
+        <v>2.9</v>
       </c>
       <c r="D21" s="3">
-        <v>1977</v>
+        <v>2.8</v>
       </c>
       <c r="E21" s="3">
-        <v>1977</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
